--- a/documents/CalculationOfFlat/monthly service charge-April2016.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge-April2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>#Sl</t>
   </si>
@@ -46,9 +46,6 @@
     <t>1A</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Tapan </t>
-  </si>
-  <si>
     <t>1B</t>
   </si>
   <si>
@@ -58,15 +55,9 @@
     <t>1C</t>
   </si>
   <si>
-    <t>MD. Sirajul Islam</t>
-  </si>
-  <si>
     <t>1D</t>
   </si>
   <si>
-    <t>Ferdous Alom</t>
-  </si>
-  <si>
     <t>2A</t>
   </si>
   <si>
@@ -88,15 +79,9 @@
     <t>2D</t>
   </si>
   <si>
-    <t>Shamima Kabir</t>
-  </si>
-  <si>
     <t>3A</t>
   </si>
   <si>
-    <t>Suraiya Islam</t>
-  </si>
-  <si>
     <t>3C</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>6A</t>
   </si>
   <si>
-    <t>Zahid Iqbal Moon</t>
-  </si>
-  <si>
     <t>6B</t>
   </si>
   <si>
@@ -166,9 +148,6 @@
     <t>7A</t>
   </si>
   <si>
-    <t>Mr Pavel</t>
-  </si>
-  <si>
     <t>7B</t>
   </si>
   <si>
@@ -244,12 +223,6 @@
     <t>Cash in hand</t>
   </si>
   <si>
-    <t>Current bill</t>
-  </si>
-  <si>
-    <t>Wasa</t>
-  </si>
-  <si>
     <t>Cleener</t>
   </si>
   <si>
@@ -271,55 +244,61 @@
     <t>Preveous Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Shamuddin  </t>
-  </si>
-  <si>
-    <t>Shamuddin</t>
-  </si>
-  <si>
     <t>Dish bill(Shahamuddin)</t>
   </si>
   <si>
-    <t>Shamuddin Trannsport</t>
-  </si>
-  <si>
     <t>Mahbubul Islam + Garage</t>
   </si>
   <si>
-    <t>Uncle(temporary)</t>
-  </si>
-  <si>
-    <t>Jharu++</t>
-  </si>
-  <si>
-    <t>Fitkiri</t>
-  </si>
-  <si>
-    <t>water pump</t>
-  </si>
-  <si>
-    <t>holding plate</t>
-  </si>
-  <si>
-    <t>sha</t>
-  </si>
-  <si>
-    <t>water meter</t>
-  </si>
-  <si>
-    <t>bulb</t>
-  </si>
-  <si>
-    <t>lift servicing</t>
-  </si>
-  <si>
-    <t>digel</t>
-  </si>
-  <si>
-    <t>almary</t>
-  </si>
-  <si>
     <t>4A + 1extra dish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sadekur Rahman </t>
+  </si>
+  <si>
+    <t>Mr. Monir</t>
+  </si>
+  <si>
+    <t>Md. Sirajul Islam</t>
+  </si>
+  <si>
+    <t>Shamim Kabir</t>
+  </si>
+  <si>
+    <t>Md. Kamal Hossain</t>
+  </si>
+  <si>
+    <t>Ms. Jannatul Ferdous</t>
+  </si>
+  <si>
+    <t>Mr Saidul Islam</t>
+  </si>
+  <si>
+    <t>With mar-2016</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No Dish</t>
+  </si>
+  <si>
+    <t>Voucher-1</t>
+  </si>
+  <si>
+    <t>Voucher-2</t>
+  </si>
+  <si>
+    <t>New water connection</t>
+  </si>
+  <si>
+    <t>Shahamuddin(Salary advance)</t>
+  </si>
+  <si>
+    <t>Salary of may-2016</t>
+  </si>
+  <si>
+    <t>Transport</t>
   </si>
 </sst>
 </file>
@@ -704,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,13 +695,14 @@
     <col min="4" max="4" width="13.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -741,8 +721,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -752,360 +735,453 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="5">
+        <v>2100</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="D3" s="5">
+        <v>2100</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="D4" s="5">
+        <v>2100</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2100</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2100</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2100</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2100</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2100</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2100</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2100</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4200</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2500</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2100</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2100</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2100</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2600</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2100</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2100</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2100</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2100</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2100</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1700</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2100</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2100</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2100</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3000</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6150</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D31" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="D32" s="5">
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1113,7 +1189,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1121,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1129,7 +1208,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D35" s="5">
         <v>500</v>
@@ -1138,35 +1217,35 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <f>SUM(D2:D35)</f>
-        <v>500</v>
+        <v>66850</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I37" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I38" s="12">
         <f>D36</f>
-        <v>500</v>
+        <v>66850</v>
       </c>
       <c r="J38" s="12">
-        <f>D64</f>
-        <v>17500</v>
+        <f>D55</f>
+        <v>116138</v>
       </c>
       <c r="K38" s="12">
         <f>I38-J38+M38</f>
-        <v>35550</v>
+        <v>3262</v>
       </c>
       <c r="M38">
         <v>52550</v>
@@ -1174,22 +1253,22 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1197,9 +1276,11 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D42" s="7">
+        <v>8600</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -1207,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C43" s="13">
         <v>42461</v>
@@ -1222,10 +1303,12 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>2500</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -1233,179 +1316,110 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <v>35823</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <v>33045</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7">
+        <v>500</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="7">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C50" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="7">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>12</v>
-      </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="7">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="6">
-        <f>SUM(D42:D63)</f>
-        <v>17500</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="6">
+        <f>SUM(D42:D54)</f>
+        <v>116138</v>
       </c>
     </row>
   </sheetData>
@@ -1433,22 +1447,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7">
         <v>8600</v>
@@ -1473,10 +1487,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D3" s="7">
         <v>7500</v>
@@ -1490,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7">
         <v>351</v>
@@ -1499,12 +1513,12 @@
         <v>42523</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D24" s="6">
         <f>SUM(D2:D23)</f>
@@ -1533,13 +1547,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
